--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -18,12 +18,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,9 +39,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,52 +69,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,9 +140,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,47 +156,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,31 +185,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,151 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,13 +379,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -421,15 +418,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -441,15 +429,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,17 +448,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,148 +481,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,13 +978,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="4" max="4" width="10.375"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
@@ -1013,6 +1009,17 @@
       </c>
       <c r="C2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>6.6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -19,9 +19,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -185,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,13 +978,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="4" max="4" width="10.375"/>
   </cols>
@@ -1019,6 +1019,17 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>6.6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
     </row>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -15,13 +15,27 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -185,6 +199,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -227,6 +247,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -263,6 +289,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -287,6 +319,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,12 +367,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -348,24 +380,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,145 +498,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,13 +992,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="4" max="4" width="10.375"/>
   </cols>
@@ -1030,6 +1044,17 @@
         <v>1</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>q</t>
   </si>
@@ -26,16 +26,19 @@
   <si>
     <t>w</t>
   </si>
+  <si>
+    <t>r</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,14 +50,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,61 +155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,20 +180,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -199,6 +202,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -229,84 +346,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,42 +353,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,30 +393,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,6 +426,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -458,6 +446,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,145 +501,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="4" max="4" width="10.375"/>
   </cols>
@@ -1056,6 +1059,17 @@
       </c>
       <c r="C5" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
